--- a/data/trans_dic/P21D_5_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21D_5_R-Provincia-trans_dic.xlsx
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02414740345895825</v>
+        <v>0.02288711869194431</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01186765676723133</v>
+        <v>0.01352007528046513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01128982359632121</v>
+        <v>0.01192541282556012</v>
       </c>
     </row>
     <row r="10">
@@ -682,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003877795067172069</v>
+        <v>0.003852348215112524</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00256524584763541</v>
+        <v>0.002720916316516486</v>
       </c>
     </row>
     <row r="12">
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0362848182511955</v>
+        <v>0.0496144800474055</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03551497060175338</v>
+        <v>0.03504898797819108</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02414150022339267</v>
+        <v>0.02422512029207535</v>
       </c>
     </row>
     <row r="13">
@@ -749,11 +749,11 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03878678922330315</v>
+        <v>0.03794507407686153</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.01921158252506416</v>
+        <v>0.01778755903360866</v>
       </c>
     </row>
     <row r="16">
@@ -801,10 +801,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.02660387080482974</v>
+        <v>0.02893305888640805</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01201831239640715</v>
+        <v>0.01186513890864388</v>
       </c>
     </row>
     <row r="19">
@@ -895,10 +895,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.01205253504906187</v>
+        <v>0.01277025872025144</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.007022260041682373</v>
+        <v>0.00687513810131122</v>
       </c>
     </row>
     <row r="25">
@@ -931,10 +931,10 @@
       </c>
       <c r="C26" s="5" t="inlineStr"/>
       <c r="D26" s="5" t="n">
-        <v>0.001601223665369507</v>
+        <v>0.001573687779733847</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0008309268710684997</v>
+        <v>0.0008432103674568586</v>
       </c>
     </row>
     <row r="27">
@@ -946,10 +946,10 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.01871967138834947</v>
+        <v>0.01653829880067624</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.008226152476129876</v>
+        <v>0.009453797276838578</v>
       </c>
     </row>
     <row r="28">
@@ -967,7 +967,7 @@
         <v>0.002159880433428598</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.003941980535749518</v>
+        <v>0.003941980535749517</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.003085697296927659</v>
@@ -981,13 +981,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0006466689991591903</v>
+        <v>0.000520521535396228</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.001937927992953743</v>
+        <v>0.001971867472932176</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.00173015162276338</v>
+        <v>0.001871902665510425</v>
       </c>
     </row>
     <row r="30">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.005570585622283544</v>
+        <v>0.005322143294216469</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.006893787165249727</v>
+        <v>0.00730965282363579</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.005313505593969582</v>
+        <v>0.005303244363669046</v>
       </c>
     </row>
     <row r="31">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5354</v>
+        <v>5075</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>2985</v>
+        <v>3401</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5343</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="12">
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>614</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15">
@@ -1299,13 +1299,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3376</v>
+        <v>4617</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5197</v>
+        <v>5129</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5779</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="16">
@@ -1369,11 +1369,11 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6767</v>
+        <v>6620</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>7223</v>
+        <v>6688</v>
       </c>
     </row>
     <row r="20">
@@ -1438,10 +1438,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>2112</v>
+        <v>2297</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1969</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>4293</v>
+        <v>4548</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4971</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="32">
@@ -1619,10 +1619,10 @@
       </c>
       <c r="C34" s="6" t="inlineStr"/>
       <c r="D34" s="6" t="n">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35">
@@ -1634,10 +1634,10 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>7619</v>
+        <v>6731</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6315</v>
+        <v>7257</v>
       </c>
     </row>
     <row r="36">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1013</v>
+        <v>816</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3284</v>
+        <v>3341</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>5643</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="39">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>8730</v>
+        <v>8340</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>11681</v>
+        <v>12385</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>17330</v>
+        <v>17296</v>
       </c>
     </row>
     <row r="40">
